--- a/budgetportal/tests/test_data/test_import_prov_infra_projects-update.xlsx
+++ b/budgetportal/tests/test_data/test_import_prov_infra_projects-update.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
   <si>
     <t xml:space="preserve">Project ID</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector</t>
   </si>
   <si>
     <t xml:space="preserve">Local Municipality</t>
@@ -206,11 +209,12 @@
     <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="167" formatCode="\ * #,##0.00\ ;\-* #,##0.00\ ;\ * \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -226,12 +230,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -277,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -290,7 +288,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -302,7 +300,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -323,16 +321,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CH12"/>
+  <dimension ref="A1:CI12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -450,148 +445,151 @@
         <v>37</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BT1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BU1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BV1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BW1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BX1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BY1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BZ1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CA1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CB1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CC1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CD1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CE1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CF1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CG1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CH1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="CI1" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,16 +597,16 @@
         <v>30682</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>42</v>
@@ -616,65 +614,65 @@
       <c r="G2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>-30.03029</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>29.60355</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>42534</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="M2" s="3" t="n">
         <v>42767</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="N2" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>118000</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>562000</v>
       </c>
-      <c r="R2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
         <v>680000</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="U2" s="4" t="n">
         <v>556479</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>556479</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>1315479</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>61000</v>
       </c>
-      <c r="Y2" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Z2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="0" t="n">
         <v>276000</v>
       </c>
-      <c r="AA2" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AB2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="0" t="n">
         <v>337000</v>
       </c>
-      <c r="AC2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="0" t="s">
-        <v>45</v>
+      <c r="AD2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AI2" s="0" t="s">
         <v>46</v>
@@ -687,6 +685,9 @@
       </c>
       <c r="AL2" s="0" t="s">
         <v>49</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,82 +695,82 @@
         <v>29210</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>-29.96148</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>30.21308</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="3" t="n">
         <v>42544</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="M3" s="3" t="n">
         <v>42909</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="N3" s="3" t="n">
         <v>43951</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>750000</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>1500000</v>
       </c>
-      <c r="R3" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="n">
         <v>2250000</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>451096</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>451096</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>2505096</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>307000</v>
       </c>
-      <c r="Y3" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Z3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="0" t="n">
         <v>1397000</v>
       </c>
-      <c r="AA3" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AB3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="0" t="n">
         <v>1704000</v>
       </c>
-      <c r="AC3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="0" t="s">
-        <v>45</v>
+      <c r="AD3" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AI3" s="0" t="s">
         <v>46</v>
@@ -783,8 +784,11 @@
       <c r="AL3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="AO3" s="0" t="s">
-        <v>54</v>
+      <c r="AM3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,79 +796,79 @@
         <v>28123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>-30.0057</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>30.92655</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>42535</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="M4" s="3" t="n">
         <v>42580</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="N4" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>48649</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>221621</v>
       </c>
-      <c r="R4" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
         <v>270270</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>242448</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>77610</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>320058</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>1373058</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="AA4" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AB4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="AC4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="0" t="s">
-        <v>45</v>
+      <c r="AD4" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AI4" s="0" t="s">
         <v>46</v>
@@ -878,64 +882,67 @@
       <c r="AL4" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="AM4" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
-      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
-      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
-      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1"/>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1"/>
-      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1"/>
-      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1"/>
-      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1"/>
-      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
